--- a/Excelで学習するデータサイエンスの基礎/サポートページ/元データ/第1章　ファイル1.xlsx
+++ b/Excelで学習するデータサイエンスの基礎/サポートページ/元データ/第1章　ファイル1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\近代科学社　統計学テキスト\元データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Excel\Excelで学習するデータサイエンスの基礎\サポートページ\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C827BB66-12D6-4740-81AD-C0CBD57297FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AC0773-A013-4D39-B3C1-4CF5BE144BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="384" windowWidth="14100" windowHeight="11832" xr2:uid="{FB0D17F5-3A95-4E26-971F-8A2C829608D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB0D17F5-3A95-4E26-971F-8A2C829608D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -68,12 +69,64 @@
   </si>
   <si>
     <t>社会</t>
+  </si>
+  <si>
+    <t>商品A</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品B</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品C</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品D</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋</t>
+    <rPh sb="0" eb="3">
+      <t>ナゴヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,12 +153,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -137,7 +196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,6 +205,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -165,9 +236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +276,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -311,7 +382,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,13 +532,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1328A954-AB80-4AB6-AD93-4954349A0189}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -485,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -504,8 +577,16 @@
       <c r="F2" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="3">
+        <f>AVERAGE(B2:D2)</f>
+        <v>79</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(E2:F2)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -524,8 +605,16 @@
       <c r="F3" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G7" si="0">AVERAGE(B3:D3)</f>
+        <v>79.333333333333329</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="1">AVERAGE(E3:F3)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -544,8 +633,16 @@
       <c r="F4" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>74.333333333333329</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -564,8 +661,16 @@
       <c r="F5" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -584,8 +689,16 @@
       <c r="F6" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>75.666666666666671</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="1"/>
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -603,6 +716,167 @@
       </c>
       <c r="F7" s="1">
         <v>85</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>57.666666666666664</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <f>(A9*B9*C9)^(1/2)</f>
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>121</v>
+      </c>
+      <c r="B11" s="6">
+        <v>102</v>
+      </c>
+      <c r="C11" s="6">
+        <v>132</v>
+      </c>
+      <c r="D11">
+        <v>129</v>
+      </c>
+      <c r="E11">
+        <v>126</v>
+      </c>
+      <c r="G11" s="4">
+        <f>5/(1/A11+1/B11+1/C11+1/D11+1/E11)</f>
+        <v>120.96992366130497</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1242B97B-A038-4C57-A0B6-DA728268E96E}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <f>3933/69</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1522</v>
+      </c>
+      <c r="C4">
+        <v>1443</v>
+      </c>
+      <c r="D4">
+        <v>1209</v>
+      </c>
+      <c r="E4">
+        <v>1570</v>
+      </c>
+      <c r="F4" s="3">
+        <f>AVERAGE(B4:E4)</f>
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1132</v>
+      </c>
+      <c r="C5">
+        <v>1321</v>
+      </c>
+      <c r="D5">
+        <v>1205</v>
+      </c>
+      <c r="E5">
+        <v>1061</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F6" si="0">AVERAGE(B5:E5)</f>
+        <v>1179.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>990</v>
+      </c>
+      <c r="C6">
+        <v>879</v>
+      </c>
+      <c r="D6">
+        <v>1561</v>
+      </c>
+      <c r="E6">
+        <v>1290</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <f>AVERAGE(B4:B6)</f>
+        <v>1214.6666666666667</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:E7" si="1">AVERAGE(C4:C6)</f>
+        <v>1214.3333333333333</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>1325</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>1307</v>
       </c>
     </row>
   </sheetData>
